--- a/Data/EC/NIT-9000428247.xlsx
+++ b/Data/EC/NIT-9000428247.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09903D68-A318-41A0-9F0D-69450B8C05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1141DD28-451E-444D-93F8-E3A4124F61BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CC9FFE4-1CD6-4690-8ABC-CC7D93588A96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{121809ED-F7A6-4907-9EA6-18694BBF1BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,6 +74,15 @@
     <t>1607</t>
   </si>
   <si>
+    <t>1050958536</t>
+  </si>
+  <si>
+    <t>ANGELICA MARGARITA MURILLO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>1047432978</t>
   </si>
   <si>
@@ -83,61 +92,46 @@
     <t>2303</t>
   </si>
   <si>
-    <t>1042995893</t>
-  </si>
-  <si>
-    <t>SHIRLEY MARIA NUMA GARCIA</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1050958536</t>
-  </si>
-  <si>
-    <t>ANGELICA MARGARITA MURILLO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>1010031275</t>
   </si>
   <si>
     <t>BEYNER BAYUELO SOLORZANO</t>
   </si>
   <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
     <t>1001900489</t>
   </si>
   <si>
     <t>LAURIN JULIETH PADILLA BARBOZA</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BC9F7F-08DA-1CB2-C198-384F21A034ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717C2B1-53BD-296F-CCE4-A218873D4544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC88109-EB88-4A71-865F-C2E876D8D972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EDBB4-411B-4BBC-86D4-DD3C321CA76F}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -927,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>507981</v>
+        <v>463181</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,14 +1014,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1057,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1103,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>8533</v>
+        <v>1170</v>
       </c>
       <c r="G17" s="18">
-        <v>1600000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1126,10 +1120,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>87200</v>
+        <v>8533</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1600000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>1170</v>
+        <v>42400</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1060000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1163,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F20" s="18">
         <v>42400</v>
@@ -1186,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F21" s="18">
         <v>42400</v>
@@ -1209,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>42400</v>
@@ -1232,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>42400</v>
@@ -1255,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>42400</v>
@@ -1278,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>42400</v>
@@ -1301,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>42400</v>
@@ -1324,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>42400</v>
@@ -1347,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>42400</v>
+        <v>1898</v>
       </c>
       <c r="G28" s="18">
-        <v>1060000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1370,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F29" s="24">
-        <v>1898</v>
+        <v>42400</v>
       </c>
       <c r="G29" s="24">
-        <v>1423500</v>
+        <v>1060000</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
@@ -1390,22 +1384,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="32"/>
       <c r="H34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="32"/>
       <c r="H35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
